--- a/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,12 +136,18 @@
 LED, 스위치, 점퍼선은 학교에서 지급 가능하다고 해서 신청서에 넣지 않았습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>소켓 점퍼케이블 DC-40P 20CM (M/F)</t>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPXCTKH9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +181,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -268,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +298,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,11 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -437,13 +454,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1596701</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>866775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -463,6 +480,44 @@
         <a:xfrm>
           <a:off x="9239250" y="4133850"/>
           <a:ext cx="882326" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440977</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1028700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8965852" y="4162425"/>
+          <a:ext cx="1216373" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,66 +810,66 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>2013136119</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -902,62 +957,83 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
         <v>14000</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14000</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1"/>
     <hyperlink ref="F8" r:id="rId2" display="http://mechasolution.com/shop/goods/goods_view.php?goodsno=2323&amp;category=001009"/>
     <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>

--- a/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,13 @@
   </si>
   <si>
     <t>http://www.eleparts.co.kr/EPXCTKH9</t>
+  </si>
+  <si>
+    <t>LCD1602 (5V Blue Backlight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPX4P4YG</t>
   </si>
 </sst>
 </file>
@@ -282,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,10 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -313,8 +317,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,6 +522,44 @@
         <a:xfrm>
           <a:off x="8965852" y="4162425"/>
           <a:ext cx="1216373" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="6086476"/>
+          <a:ext cx="1866900" cy="857249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,66 +852,66 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2013136119</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -961,7 +1003,7 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2">
@@ -980,7 +1022,7 @@
     </row>
     <row r="11" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
@@ -999,30 +1041,51 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4500</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>

--- a/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136119_정현택_마이크로프로세서_재료구매신청서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>키패드 메트로놈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPX3FC37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,36 +121,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브레드보드(EIC-104J)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPX33HCL</t>
-  </si>
-  <si>
-    <t>저번 발표때 교수님께서 위에있는 재료가 다 있다고 하셔서 구매가 필요 없다고 하셨지만, 혹시 몰라서 올려봅니다.
-LED, 스위치, 점퍼선은 학교에서 지급 가능하다고 해서 신청서에 넣지 않았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소켓 점퍼케이블 DC-40P 20CM (M/F)</t>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPXCTKH9</t>
-  </si>
-  <si>
-    <t>LCD1602 (5V Blue Backlight)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.eleparts.co.kr/EPX4P4YG</t>
+    <t>http://www.eleparts.co.kr/EPX3FC37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,14 +163,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2C2C2C"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -289,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,9 +272,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,7 +282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -446,120 +410,6 @@
         <a:xfrm>
           <a:off x="9154542" y="3381375"/>
           <a:ext cx="983010" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1596701</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9239250" y="4133850"/>
-          <a:ext cx="882326" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>440977</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1028700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8965852" y="4162425"/>
-          <a:ext cx="1216373" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8677275" y="6086476"/>
-          <a:ext cx="1866900" cy="857249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,66 +702,66 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2013136119</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -941,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>10360</v>
@@ -953,7 +803,7 @@
         <v>10360</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -962,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>5500</v>
@@ -974,7 +824,7 @@
         <v>5500</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -983,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
         <v>360</v>
@@ -995,96 +845,30 @@
         <v>360</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>14000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>14000</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4500</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A14:G14"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
@@ -1096,10 +880,9 @@
     <hyperlink ref="F7" r:id="rId1"/>
     <hyperlink ref="F8" r:id="rId2" display="http://mechasolution.com/shop/goods/goods_view.php?goodsno=2323&amp;category=001009"/>
     <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>